--- a/DATA_goal/Junction_Flooding_268.xlsx
+++ b/DATA_goal/Junction_Flooding_268.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41700.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>82.98999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41700.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>18.11</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>6.04</v>
-      </c>
       <c r="N3" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>69.34999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41700.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.09</v>
+        <v>2.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.98</v>
+        <v>3.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>131.14</v>
+        <v>13.11</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.37</v>
+        <v>2.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.21</v>
+        <v>3.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41700.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.68</v>
+        <v>1.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.27</v>
+        <v>2.73</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>95.68000000000001</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.89</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.14</v>
+        <v>2.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41700.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="X6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z6" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="AA6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.87</v>
-      </c>
       <c r="AG6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41700.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.15</v>
+        <v>1.82</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>39.65</v>
+        <v>3.96</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>32.54</v>
+        <v>3.25</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>49.96</v>
+        <v>5</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.01</v>
+        <v>2.2</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>20.21</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>210.11</v>
+        <v>21.01</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>39.77</v>
+        <v>3.98</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.75</v>
+        <v>2.67</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.46</v>
+        <v>2.55</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>45.16</v>
+        <v>4.52</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="8">
@@ -1279,16 +1279,16 @@
         <v>41700.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="R8" s="4" t="n">
         <v>0</v>
@@ -1336,46 +1336,46 @@
         <v>0</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41700.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>31.48</v>
+        <v>3.15</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.2</v>
+        <v>2.62</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>39.69</v>
+        <v>3.97</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>167.17</v>
+        <v>16.72</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>31.77</v>
+        <v>3.18</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.36</v>
+        <v>2.14</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.35</v>
+        <v>1.13</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>20.03</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>35.81</v>
+        <v>3.58</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41700.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>40.3</v>
+        <v>4.03</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>33.56</v>
+        <v>3.36</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>55.61</v>
+        <v>5.56</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>22.5</v>
+        <v>2.25</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>215.02</v>
+        <v>21.5</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>40.78</v>
+        <v>4.08</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>27.5</v>
+        <v>2.75</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>27.57</v>
+        <v>2.76</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>50.66</v>
+        <v>5.07</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_268.xlsx
+++ b/DATA_goal/Junction_Flooding_268.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44949.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44949.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.8</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.93</v>
+        <v>39.26</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.2</v>
+        <v>32.02</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.12</v>
+        <v>51.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.82</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.91</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.95</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.01</v>
+        <v>210.13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.99</v>
+        <v>39.87</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.61</v>
+        <v>26.12</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.19</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.63</v>
+        <v>46.32</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44949.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.36</v>
+        <v>43.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.57</v>
+        <v>35.72</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.35</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.15</v>
+        <v>61.49</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.24</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.77</v>
       </c>
       <c r="P4" s="4" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>233.03</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>2.23</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>3.03</v>
+        <v>30.27</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.79</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.58</v>
+        <v>55.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44949.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.14</v>
+        <v>61.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_268.xlsx
+++ b/DATA_goal/Junction_Flooding_268.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44949.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44949.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.8</v>
+        <v>17.805</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.54</v>
+        <v>13.544</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.26</v>
+        <v>39.259</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.02</v>
+        <v>32.021</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.64</v>
+        <v>13.635</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.21</v>
+        <v>51.208</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.82</v>
+        <v>21.815</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.29</v>
+        <v>10.287</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.64</v>
+        <v>14.639</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.91</v>
+        <v>15.912</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.89</v>
+        <v>16.891</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.26</v>
+        <v>14.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.95</v>
+        <v>19.949</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>12.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>210.13</v>
+        <v>210.125</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.87</v>
+        <v>39.868</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.17</v>
+        <v>13.167</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.45</v>
+        <v>26.454</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.58</v>
+        <v>14.581</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.12</v>
+        <v>26.117</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.43</v>
+        <v>11.426</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.88</v>
+        <v>10.878</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.06</v>
+        <v>13.055</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>17.19</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.32</v>
+        <v>46.322</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.89</v>
+        <v>7.894</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>16.13</v>
@@ -863,100 +863,100 @@
         <v>44949.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.85</v>
+        <v>19.852</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.517</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.62</v>
+        <v>43.617</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.72</v>
+        <v>35.719</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.35</v>
+        <v>15.347</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>61.49</v>
+        <v>61.494</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.23</v>
+        <v>24.231</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>11.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.24</v>
+        <v>16.244</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.6</v>
+        <v>17.599</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>18.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.77</v>
+        <v>15.768</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.27</v>
+        <v>22.266</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.24</v>
+        <v>13.236</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.194</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>233.03</v>
+        <v>233.033</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.17</v>
+        <v>44.165</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.56</v>
+        <v>14.555</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.53</v>
+        <v>29.532</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.95</v>
+        <v>15.954</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.23</v>
+        <v>2.234</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.27</v>
+        <v>30.274</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.75</v>
+        <v>12.753</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.79</v>
+        <v>11.787</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.97</v>
+        <v>13.969</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>18.79</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.8</v>
+        <v>55.802</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.552</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>17.99</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44949.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_268.xlsx
+++ b/DATA_goal/Junction_Flooding_268.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,43 +967,43 @@
         <v>44949.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.51</v>
+        <v>5.508</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.22</v>
+        <v>4.216</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.34</v>
+        <v>12.343</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.12</v>
+        <v>4.119</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.16</v>
+        <v>23.159</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.83</v>
+        <v>6.826</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.43</v>
+        <v>3.431</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.56</v>
+        <v>4.562</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.02</v>
+        <v>5.023</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.33</v>
+        <v>5.333</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.431</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>4.49</v>
@@ -1012,58 +1012,162 @@
         <v>6.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.87</v>
+        <v>3.866</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.39</v>
+        <v>61.389</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.88</v>
+        <v>12.879</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.15</v>
+        <v>4.145</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.464</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.71</v>
+        <v>4.712</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.86</v>
+        <v>10.864</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.6</v>
+        <v>3.601</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.3</v>
+        <v>4.302</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.49</v>
+        <v>5.486</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>21.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.55</v>
+        <v>2.551</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.04</v>
+        <v>5.036</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44949.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_268.xlsx
+++ b/DATA_goal/Junction_Flooding_268.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,43 +967,43 @@
         <v>44949.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.508</v>
+        <v>5.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.216</v>
+        <v>4.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.343</v>
+        <v>12.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.925000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.119</v>
+        <v>4.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.159</v>
+        <v>23.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.826</v>
+        <v>6.83</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.431</v>
+        <v>3.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.562</v>
+        <v>4.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.023</v>
+        <v>5.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.333</v>
+        <v>5.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.431</v>
+        <v>1.43</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>4.49</v>
@@ -1012,162 +1012,58 @@
         <v>6.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.866</v>
+        <v>3.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.325</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>61.389</v>
+        <v>61.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.879</v>
+        <v>12.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.145</v>
+        <v>4.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.464</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.712</v>
+        <v>4.71</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.737</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.864</v>
+        <v>10.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.601</v>
+        <v>3.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.624</v>
+        <v>3.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.302</v>
+        <v>4.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.486</v>
+        <v>5.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>21.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.551</v>
+        <v>2.55</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.036</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44949.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>5.04</v>
       </c>
     </row>
   </sheetData>
